--- a/data/averages_per_landform.xlsx
+++ b/data/averages_per_landform.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnann\Nextcloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnann\Nextcloud\PostDoc\Projects\Topography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA161DD-0D7A-4CDA-BDED-43959F79D9A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE209A6-8BBE-4930-B6E7-4D62959ED70A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{9F17E521-FF5B-4D25-AA98-F1F686C7DE57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>WorldClim</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">Total land area:  </t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -402,17 +408,17 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -420,10 +426,15 @@
         <v>132796615.528615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -431,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -442,7 +453,7 @@
         <v>1601.1054359953901</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -453,7 +464,7 @@
         <v>1439.1386708366199</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -464,7 +475,7 @@
         <v>1817.1300932834699</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -472,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -483,7 +494,7 @@
         <v>1305.5452287514599</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -494,7 +505,7 @@
         <v>1201.20404051629</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -505,12 +516,12 @@
         <v>1444.71124473899</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -523,7 +534,7 @@
         <v>0.18459759151350549</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -536,7 +547,7 @@
         <v>0.16533127428367309</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
